--- a/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
+++ b/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
@@ -60,7 +60,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">15:03
+      <t xml:space="preserve">23:17
 </t>
     </r>
     <r>
@@ -85,7 +85,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">22-05-2020
+      <t xml:space="preserve">07-09-2020
 </t>
     </r>
     <r>
@@ -612,7 +612,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ3"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,7 +636,7 @@
     <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:52" customHeight="1" ht="50">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">15:03
+            <t xml:space="preserve">23:17
 </t>
           </r>
           <r>
@@ -719,7 +719,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">22-05-2020
+            <t xml:space="preserve">07-09-2020
 </t>
           </r>
           <r>
@@ -749,41 +749,41 @@
         </is>
       </c>
     </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:52">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
+++ b/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
@@ -15,10 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <r>
-      <t xml:space="preserve">Prismanet Profesional S.A. </t>
+      <t xml:space="preserve">HARO URRUTIA MEYBOL GISELLE </t>
     </r>
     <r>
       <rPr>
@@ -30,7 +30,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">PRISMANET PROFESIONAL S.A.</t>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
@@ -60,7 +60,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">23:17
+      <t xml:space="preserve">22:02
 </t>
     </r>
     <r>
@@ -85,7 +85,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">07-09-2020
+      <t xml:space="preserve">26-10-2020
 </t>
     </r>
     <r>
@@ -114,40 +114,361 @@
     </r>
   </si>
   <si>
+    <t>Codigo</t>
+  </si>
+  <si>
     <t>Cuenta</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Telefono</t>
-  </si>
-  <si>
-    <t>Factura</t>
-  </si>
-  <si>
-    <t>Fecha_Emi</t>
-  </si>
-  <si>
-    <t>Fecha_Ven</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Abonos</t>
-  </si>
-  <si>
-    <t>Saldo</t>
+    <t>Total_N6</t>
+  </si>
+  <si>
+    <t>Total_N5</t>
+  </si>
+  <si>
+    <t>Total_N4</t>
+  </si>
+  <si>
+    <t>Total_N3</t>
+  </si>
+  <si>
+    <t>Total_N2</t>
+  </si>
+  <si>
+    <t>Total_N1</t>
+  </si>
+  <si>
+    <t>DG</t>
   </si>
   <si>
     <t>TC</t>
   </si>
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Cta</t>
+    <t>INGRESOS</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    INGRESOS POR ACTIVIDADES ORDINARIAS</t>
+  </si>
+  <si>
+    <t>4.1.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        INTERESES</t>
+  </si>
+  <si>
+    <t>4.1.06.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            INTERESES GANADOS</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    OTROS INGRESOS</t>
+  </si>
+  <si>
+    <t>4.3.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OTROS INGRESOS GRAVADOS</t>
+  </si>
+  <si>
+    <t>4.3.10.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            OTROS INGRESOS GRAVADOS</t>
+  </si>
+  <si>
+    <t>4.3.10.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            OTROS INGRESOS DIFERENCIA DE INVENTARIO</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>CUENTAS DE EGRESOS</t>
+  </si>
+  <si>
+    <t>7,217.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    COSTOS DE VENTA Y PRODUCCION</t>
+  </si>
+  <si>
+    <t>5.1.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        COSTOS DE OPERACION</t>
+  </si>
+  <si>
+    <t>5.1.03.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            MANTENIMIENTO Y REPARACIONES</t>
+  </si>
+  <si>
+    <t>5.1.03.08.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MANTENIMIENTO DE INSTALACIONES</t>
+  </si>
+  <si>
+    <t>5.1.03.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COMBUSTIBLES</t>
+  </si>
+  <si>
+    <t>5.1.03.12.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                COMBUSTIBLES</t>
+  </si>
+  <si>
+    <t>5.1.03.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            GASTOS DE OPERACION</t>
+  </si>
+  <si>
+    <t>5.1.03.16.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ATENCION EMPLEADOS Y COLABORADORES</t>
+  </si>
+  <si>
+    <t>5.1.03.16.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UTILES DE ASEO Y MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>5.1.03.16.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SERVICIOS NOTARIOS Y TRAMITES LEGALES</t>
+  </si>
+  <si>
+    <t>5.1.03.16.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                IMPLEMENTOS DE PROTECCION Y SEGURIDAD</t>
+  </si>
+  <si>
+    <t>5.1.03.16.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ALIMENTACION Y RESTAURANTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    GASTOS</t>
+  </si>
+  <si>
+    <t>6,563.87</t>
+  </si>
+  <si>
+    <t>5.2.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GASTOS DE VENTA</t>
+  </si>
+  <si>
+    <t>7,016.39</t>
+  </si>
+  <si>
+    <t>5.2.01.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HONORARIOS, COMISIONES PERSONAS NATURALES</t>
+  </si>
+  <si>
+    <t>4,520.15</t>
+  </si>
+  <si>
+    <t>5.2.01.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                COMISIONES A VENDEDORES</t>
+  </si>
+  <si>
+    <t>5.2.01.08</t>
+  </si>
+  <si>
+    <t>5.2.01.08.03</t>
+  </si>
+  <si>
+    <t>5.2.01.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            PROMOCION Y PUBLICIDAD</t>
+  </si>
+  <si>
+    <t>2,369.00</t>
+  </si>
+  <si>
+    <t>5.2.01.11.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                PUBLICIDAD Y PROPAGANDA</t>
+  </si>
+  <si>
+    <t>5.2.01.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            TRANSPORTE</t>
+  </si>
+  <si>
+    <t>5.2.01.15.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                TRANSPORTE DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>5.2.01.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            GASTOS DE GESTION</t>
+  </si>
+  <si>
+    <t>5.2.01.16.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                ATENCIONES CLIENTES</t>
+  </si>
+  <si>
+    <t>5.2.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GASTOS DE ADMINISTRACION</t>
+  </si>
+  <si>
+    <t>1,083.20</t>
+  </si>
+  <si>
+    <t>5.2.02.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            HONORARIOS COMISIONES PERSONAS NATURALES</t>
+  </si>
+  <si>
+    <t>5.2.02.05.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                HONORARIOS PERSONAS NATURALES</t>
+  </si>
+  <si>
+    <t>5.2.02.05.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SERVICIOS PRESTADOS</t>
+  </si>
+  <si>
+    <t>5.2.02.08</t>
+  </si>
+  <si>
+    <t>5.2.02.08.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MANTENIMIENTO OFICINAS</t>
+  </si>
+  <si>
+    <t>5.2.02.15</t>
+  </si>
+  <si>
+    <t>5.2.02.15.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                MOVILIZACIONES Y TAXIS</t>
+  </si>
+  <si>
+    <t>5.2.02.16</t>
+  </si>
+  <si>
+    <t>5.2.02.16.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UTILES DE OFICINA</t>
+  </si>
+  <si>
+    <t>5.2.02.16.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                UTILES DE ASEO</t>
+  </si>
+  <si>
+    <t>5.2.02.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            AGUA, ENERGIA Y TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>5.2.02.18.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                SERVICIO INTERNET</t>
+  </si>
+  <si>
+    <t>5.2.02.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            IMPUESTOS, CONTRIBUCIONES Y OTROS</t>
+  </si>
+  <si>
+    <t>5.2.02.20.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                IMPUESTOS CAMARAS GREMIALES</t>
+  </si>
+  <si>
+    <t>5.2.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        GASTOS FINANCIEROS</t>
+  </si>
+  <si>
+    <t>5.2.03.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COMISIONES</t>
+  </si>
+  <si>
+    <t>5.2.03.02.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                COMISIONES BANCARIAS</t>
+  </si>
+  <si>
+    <t>5.2.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OTROS GASTOS</t>
+  </si>
+  <si>
+    <t>-1,563.84</t>
+  </si>
+  <si>
+    <t>5.2.04.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            COMODIN</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>-7,189.86</t>
   </si>
 </sst>
 </file>
@@ -155,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -191,6 +512,15 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
     </font>
   </fonts>
   <fills count="4">
@@ -231,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -247,6 +577,18 @@
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -266,7 +608,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="971550" cy="342900"/>
+    <xdr:ext cx="457200" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
@@ -291,7 +633,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>952500</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -612,28 +954,26 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AZ56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="63.555908" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3.427734" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="32.991943" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="32.991943" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
     <col min="52" max="52" width="9.10" bestFit="true" style="0"/>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="15.281982" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customHeight="1" ht="50">
@@ -641,7 +981,7 @@
       <c r="B1" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Prismanet Profesional S.A. </t>
+            <t xml:space="preserve">HARO URRUTIA MEYBOL GISELLE </t>
           </r>
           <r>
             <rPr>
@@ -653,7 +993,7 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">PRISMANET PROFESIONAL S.A.</t>
+            <t xml:space="preserve">.</t>
           </r>
         </is>
       </c>
@@ -664,9 +1004,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="J1" s="4" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">
@@ -694,7 +1032,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">23:17
+            <t xml:space="preserve">22:02
 </t>
           </r>
           <r>
@@ -719,7 +1057,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">07-09-2020
+            <t xml:space="preserve">26-10-2020
 </t>
           </r>
           <r>
@@ -780,17 +1118,1739 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="6">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7">
+        <v>27.51</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="6">
+        <v>4.1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7">
+        <v>22.08</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22.08</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>22.08</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5.43</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5.43</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>5.03</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" s="6">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" s="6">
+        <v>5.1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="7">
+        <v>653.5</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="7">
+        <v>653.5</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="7">
+        <v>236.76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>236.76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="A18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="7">
+        <v>382.74</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>75.42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>127.82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>44.5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="7">
+        <v>42.41</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>42.41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="7">
+        <v>81.83</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>81.83</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="7">
+        <v>460</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>310</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7">
+        <v>45</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="7">
+        <v>4.46</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>4.46</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="7">
+        <v>109.16</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>66.41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="A46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>42.75</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="7">
+        <v>162.58</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52">
+      <c r="A48" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>162.58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="7">
+        <v>302</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>302</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7">
+        <v>28.12</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="7">
+        <v>28.12</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>28.12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="A56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
+++ b/php/vista/TEMP/BALANCE DE COMPROBACIÓN.xlsx
@@ -60,7 +60,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">00:29
+      <t xml:space="preserve">21:18
 </t>
     </r>
     <r>
@@ -85,7 +85,7 @@
         <sz val="8"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">16-07-2021
+      <t xml:space="preserve">29-07-2021
 </t>
     </r>
     <r>
@@ -705,7 +705,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">00:29
+            <t xml:space="preserve">21:18
 </t>
           </r>
           <r>
@@ -730,7 +730,7 @@
               <sz val="8"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">16-07-2021
+            <t xml:space="preserve">29-07-2021
 </t>
           </r>
           <r>
